--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H2">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I2">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J2">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N2">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O2">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P2">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q2">
-        <v>9.719995143940888</v>
+        <v>35.28291002062223</v>
       </c>
       <c r="R2">
-        <v>87.479956295468</v>
+        <v>317.5461901856</v>
       </c>
       <c r="S2">
-        <v>0.001347012676124116</v>
+        <v>0.002840377910320839</v>
       </c>
       <c r="T2">
-        <v>0.001347012676124116</v>
+        <v>0.002840377910320839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H3">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I3">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J3">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O3">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P3">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q3">
-        <v>36.3238879435789</v>
+        <v>83.00542917853224</v>
       </c>
       <c r="R3">
-        <v>326.91499149221</v>
+        <v>747.0488626067901</v>
       </c>
       <c r="S3">
-        <v>0.005033823245952257</v>
+        <v>0.006682180901110548</v>
       </c>
       <c r="T3">
-        <v>0.005033823245952257</v>
+        <v>0.006682180901110548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H4">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I4">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J4">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N4">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O4">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P4">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q4">
-        <v>6.405187662440111</v>
+        <v>16.49753715893422</v>
       </c>
       <c r="R4">
-        <v>57.646688961961</v>
+        <v>148.477834430408</v>
       </c>
       <c r="S4">
-        <v>0.0008876412844340709</v>
+        <v>0.001328100207538029</v>
       </c>
       <c r="T4">
-        <v>0.0008876412844340708</v>
+        <v>0.001328100207538029</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H5">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I5">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J5">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N5">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O5">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P5">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q5">
-        <v>25.74014615592689</v>
+        <v>12.355208288455</v>
       </c>
       <c r="R5">
-        <v>231.661315403342</v>
+        <v>111.196874596095</v>
       </c>
       <c r="S5">
-        <v>0.003567111160434526</v>
+        <v>0.0009946305641861466</v>
       </c>
       <c r="T5">
-        <v>0.003567111160434526</v>
+        <v>0.0009946305641861466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H6">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I6">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J6">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N6">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O6">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P6">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q6">
-        <v>12.87204258232689</v>
+        <v>42.19336690881001</v>
       </c>
       <c r="R6">
-        <v>115.848383240942</v>
+        <v>379.74030217929</v>
       </c>
       <c r="S6">
-        <v>0.001783828517323091</v>
+        <v>0.003396689991267696</v>
       </c>
       <c r="T6">
-        <v>0.00178382851732309</v>
+        <v>0.003396689991267696</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H7">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I7">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J7">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N7">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O7">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P7">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q7">
-        <v>4.696726166540222</v>
+        <v>11.72874457882533</v>
       </c>
       <c r="R7">
-        <v>42.270535498862</v>
+        <v>105.558701209428</v>
       </c>
       <c r="S7">
-        <v>0.0006508799221527653</v>
+        <v>0.000944198395144258</v>
       </c>
       <c r="T7">
-        <v>0.0006508799221527653</v>
+        <v>0.0009441983951442582</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N8">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O8">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P8">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q8">
-        <v>61.11602686968445</v>
+        <v>97.08212863644445</v>
       </c>
       <c r="R8">
-        <v>550.04424182716</v>
+        <v>873.739157728</v>
       </c>
       <c r="S8">
-        <v>0.008469558028444592</v>
+        <v>0.007815396561811712</v>
       </c>
       <c r="T8">
-        <v>0.008469558028444592</v>
+        <v>0.007815396561811714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O9">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P9">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q9">
         <v>228.3922654997445</v>
@@ -1013,10 +1013,10 @@
         <v>2055.5303894977</v>
       </c>
       <c r="S9">
-        <v>0.03165097021150644</v>
+        <v>0.01838624834046968</v>
       </c>
       <c r="T9">
-        <v>0.03165097021150644</v>
+        <v>0.01838624834046968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N10">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O10">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P10">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q10">
-        <v>40.27364370928556</v>
+        <v>45.39353538900445</v>
       </c>
       <c r="R10">
-        <v>362.46279338357</v>
+        <v>408.54181850104</v>
       </c>
       <c r="S10">
-        <v>0.005581186799659145</v>
+        <v>0.00365431295533547</v>
       </c>
       <c r="T10">
-        <v>0.005581186799659145</v>
+        <v>0.003654312955335471</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N11">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O11">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P11">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q11">
-        <v>161.8452932125045</v>
+        <v>33.99577641665</v>
       </c>
       <c r="R11">
-        <v>1456.60763891254</v>
+        <v>305.96198774985</v>
       </c>
       <c r="S11">
-        <v>0.0224287829674654</v>
+        <v>0.002736759873877204</v>
       </c>
       <c r="T11">
-        <v>0.0224287829674654</v>
+        <v>0.002736759873877204</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N12">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O12">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P12">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q12">
-        <v>80.93503018050447</v>
+        <v>116.0964861303</v>
       </c>
       <c r="R12">
-        <v>728.4152716245401</v>
+        <v>1044.8683751727</v>
       </c>
       <c r="S12">
-        <v>0.01121610761951738</v>
+        <v>0.009346108200191999</v>
       </c>
       <c r="T12">
-        <v>0.01121610761951738</v>
+        <v>0.009346108200191999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N13">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O13">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P13">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q13">
-        <v>29.53141831277112</v>
+        <v>32.27204018262666</v>
       </c>
       <c r="R13">
-        <v>265.78276481494</v>
+        <v>290.44836164364</v>
       </c>
       <c r="S13">
-        <v>0.004092511798838038</v>
+        <v>0.002597994043069091</v>
       </c>
       <c r="T13">
-        <v>0.004092511798838038</v>
+        <v>0.002597994043069091</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H14">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I14">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J14">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N14">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O14">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P14">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q14">
-        <v>257.3132415311565</v>
+        <v>1045.130613067378</v>
       </c>
       <c r="R14">
-        <v>2315.819173780408</v>
+        <v>9406.1755176064</v>
       </c>
       <c r="S14">
-        <v>0.03565888592990863</v>
+        <v>0.0841360847226485</v>
       </c>
       <c r="T14">
-        <v>0.03565888592990862</v>
+        <v>0.08413608472264852</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H15">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I15">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J15">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O15">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P15">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q15">
-        <v>961.5866277055845</v>
+        <v>2458.740365649418</v>
       </c>
       <c r="R15">
-        <v>8654.279649350259</v>
+        <v>22128.66329084476</v>
       </c>
       <c r="S15">
-        <v>0.1332582329033662</v>
+        <v>0.1979358226893108</v>
       </c>
       <c r="T15">
-        <v>0.1332582329033661</v>
+        <v>0.1979358226893109</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H16">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I16">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J16">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N16">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O16">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P16">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q16">
-        <v>169.5617719588295</v>
+        <v>488.6808121819057</v>
       </c>
       <c r="R16">
-        <v>1526.055947629466</v>
+        <v>4398.127309637151</v>
       </c>
       <c r="S16">
-        <v>0.02349814509495798</v>
+        <v>0.03934024102059179</v>
       </c>
       <c r="T16">
-        <v>0.02349814509495798</v>
+        <v>0.0393402410205918</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H17">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I17">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J17">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N17">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O17">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P17">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q17">
-        <v>681.4077936032724</v>
+        <v>365.97906480902</v>
       </c>
       <c r="R17">
-        <v>6132.670142429452</v>
+        <v>3293.81158328118</v>
       </c>
       <c r="S17">
-        <v>0.09443059610637135</v>
+        <v>0.02946238988552359</v>
       </c>
       <c r="T17">
-        <v>0.09443059610637133</v>
+        <v>0.0294623898855236</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H18">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I18">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J18">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N18">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O18">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P18">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q18">
-        <v>340.7560346416724</v>
+        <v>1249.82829928164</v>
       </c>
       <c r="R18">
-        <v>3066.804311775052</v>
+        <v>11248.45469353476</v>
       </c>
       <c r="S18">
-        <v>0.0472225233995356</v>
+        <v>0.100614849821019</v>
       </c>
       <c r="T18">
-        <v>0.04722252339953559</v>
+        <v>0.1006148498210191</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H19">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I19">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J19">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N19">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O19">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P19">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q19">
-        <v>124.3344072296191</v>
+        <v>347.4223074291145</v>
       </c>
       <c r="R19">
-        <v>1119.009665066572</v>
+        <v>3126.800766862032</v>
       </c>
       <c r="S19">
-        <v>0.01723046360996138</v>
+        <v>0.02796851640064777</v>
       </c>
       <c r="T19">
-        <v>0.01723046360996138</v>
+        <v>0.02796851640064778</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H20">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N20">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O20">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P20">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q20">
-        <v>23.77044131636222</v>
+        <v>48.63107055146666</v>
       </c>
       <c r="R20">
-        <v>213.93397184726</v>
+        <v>437.6796349632</v>
       </c>
       <c r="S20">
-        <v>0.003294146272301784</v>
+        <v>0.003914944047101141</v>
       </c>
       <c r="T20">
-        <v>0.003294146272301784</v>
+        <v>0.003914944047101142</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H21">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O21">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P21">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q21">
-        <v>88.83078992927223</v>
+        <v>114.4078784934867</v>
       </c>
       <c r="R21">
-        <v>799.47710936345</v>
+        <v>1029.67090644138</v>
       </c>
       <c r="S21">
-        <v>0.01231031479881322</v>
+        <v>0.009210170324659614</v>
       </c>
       <c r="T21">
-        <v>0.01231031479881322</v>
+        <v>0.009210170324659615</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H22">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N22">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O22">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P22">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q22">
-        <v>15.66401373618278</v>
+        <v>22.73885269193066</v>
       </c>
       <c r="R22">
-        <v>140.976123625645</v>
+        <v>204.649674227376</v>
       </c>
       <c r="S22">
-        <v>0.002170744403588849</v>
+        <v>0.001830544443597467</v>
       </c>
       <c r="T22">
-        <v>0.002170744403588849</v>
+        <v>0.001830544443597467</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H23">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N23">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O23">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P23">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q23">
-        <v>62.94803902813221</v>
+        <v>17.02940618001</v>
       </c>
       <c r="R23">
-        <v>566.53235125319</v>
+        <v>153.26465562009</v>
       </c>
       <c r="S23">
-        <v>0.00872344124172798</v>
+        <v>0.00137091722625232</v>
       </c>
       <c r="T23">
-        <v>0.00872344124172798</v>
+        <v>0.00137091722625232</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H24">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N24">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O24">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P24">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q24">
-        <v>31.47883597613222</v>
+        <v>58.15587778182</v>
       </c>
       <c r="R24">
-        <v>283.30952378519</v>
+        <v>523.4029000363799</v>
       </c>
       <c r="S24">
-        <v>0.004362388093981111</v>
+        <v>0.004681719010995763</v>
       </c>
       <c r="T24">
-        <v>0.004362388093981111</v>
+        <v>0.004681719010995764</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H25">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N25">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O25">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P25">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q25">
-        <v>11.48593719106555</v>
+        <v>16.165939962424</v>
       </c>
       <c r="R25">
-        <v>103.37343471959</v>
+        <v>145.493459661816</v>
       </c>
       <c r="S25">
-        <v>0.00159173978632852</v>
+        <v>0.001301405659057151</v>
       </c>
       <c r="T25">
-        <v>0.00159173978632852</v>
+        <v>0.001301405659057151</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H26">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N26">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O26">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P26">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q26">
-        <v>257.5389926508613</v>
+        <v>435.3143926496</v>
       </c>
       <c r="R26">
-        <v>2317.850933857752</v>
+        <v>3917.8295338464</v>
       </c>
       <c r="S26">
-        <v>0.0356901708858565</v>
+        <v>0.03504408746908826</v>
       </c>
       <c r="T26">
-        <v>0.0356901708858565</v>
+        <v>0.03504408746908827</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H27">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O27">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P27">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q27">
-        <v>962.4302658199935</v>
+        <v>1024.10651412689</v>
       </c>
       <c r="R27">
-        <v>8661.872392379941</v>
+        <v>9216.95862714201</v>
       </c>
       <c r="S27">
-        <v>0.1333751456401877</v>
+        <v>0.08244358299362282</v>
       </c>
       <c r="T27">
-        <v>0.1333751456401877</v>
+        <v>0.08244358299362284</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H28">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N28">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O28">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P28">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q28">
-        <v>169.7105352313727</v>
+        <v>203.543737303928</v>
       </c>
       <c r="R28">
-        <v>1527.394817082354</v>
+        <v>1831.893635735352</v>
       </c>
       <c r="S28">
-        <v>0.0235187609503046</v>
+        <v>0.01638586882103295</v>
       </c>
       <c r="T28">
-        <v>0.0235187609503046</v>
+        <v>0.01638586882103295</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H29">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N29">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O29">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P29">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q29">
-        <v>682.0056197060653</v>
+        <v>152.436405869145</v>
       </c>
       <c r="R29">
-        <v>6138.050577354587</v>
+        <v>1371.927652822305</v>
       </c>
       <c r="S29">
-        <v>0.09451344381633979</v>
+        <v>0.01227157849809877</v>
       </c>
       <c r="T29">
-        <v>0.09451344381633979</v>
+        <v>0.01227157849809877</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H30">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N30">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O30">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P30">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q30">
-        <v>341.0549934356654</v>
+        <v>520.5744049743901</v>
       </c>
       <c r="R30">
-        <v>3069.494940920988</v>
+        <v>4685.16964476951</v>
       </c>
       <c r="S30">
-        <v>0.04726395359360296</v>
+        <v>0.04190776893695675</v>
       </c>
       <c r="T30">
-        <v>0.04726395359360296</v>
+        <v>0.04190776893695675</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H31">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N31">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O31">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P31">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q31">
-        <v>124.4434907399853</v>
+        <v>144.707205836748</v>
       </c>
       <c r="R31">
-        <v>1119.991416659868</v>
+        <v>1302.364852530732</v>
       </c>
       <c r="S31">
-        <v>0.01724558057957334</v>
+        <v>0.01164935518875042</v>
       </c>
       <c r="T31">
-        <v>0.01724558057957334</v>
+        <v>0.01164935518875042</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H32">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N32">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O32">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P32">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q32">
-        <v>123.0038303221782</v>
+        <v>518.3761394602667</v>
       </c>
       <c r="R32">
-        <v>1107.034472899604</v>
+        <v>4665.385255142401</v>
       </c>
       <c r="S32">
-        <v>0.01704607010622613</v>
+        <v>0.04173080210503482</v>
       </c>
       <c r="T32">
-        <v>0.01704607010622613</v>
+        <v>0.04173080210503483</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H33">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O33">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P33">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q33">
-        <v>459.6686812172923</v>
+        <v>1219.514884306907</v>
       </c>
       <c r="R33">
-        <v>4137.01813095563</v>
+        <v>10975.63395876216</v>
       </c>
       <c r="S33">
-        <v>0.06370163063331601</v>
+        <v>0.09817453086120828</v>
       </c>
       <c r="T33">
-        <v>0.06370163063331601</v>
+        <v>0.09817453086120831</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H34">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N34">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O34">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P34">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q34">
-        <v>81.05586522886476</v>
+        <v>242.3816408015147</v>
       </c>
       <c r="R34">
-        <v>729.5027870597829</v>
+        <v>2181.434767213632</v>
       </c>
       <c r="S34">
-        <v>0.01123285313630531</v>
+        <v>0.01951243415006167</v>
       </c>
       <c r="T34">
-        <v>0.01123285313630531</v>
+        <v>0.01951243415006168</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H35">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N35">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O35">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P35">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q35">
-        <v>325.7343777795362</v>
+        <v>181.52258901132</v>
       </c>
       <c r="R35">
-        <v>2931.609400015825</v>
+        <v>1633.70330110188</v>
       </c>
       <c r="S35">
-        <v>0.04514079785234767</v>
+        <v>0.01461310169004334</v>
       </c>
       <c r="T35">
-        <v>0.04514079785234767</v>
+        <v>0.01461310169004334</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H36">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N36">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O36">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P36">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q36">
-        <v>162.8921124187362</v>
+        <v>619.9044987002401</v>
       </c>
       <c r="R36">
-        <v>1466.029011768626</v>
+        <v>5579.140488302161</v>
       </c>
       <c r="S36">
-        <v>0.02257385286920124</v>
+        <v>0.04990413329250735</v>
       </c>
       <c r="T36">
-        <v>0.02257385286920124</v>
+        <v>0.04990413329250737</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H37">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N37">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O37">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P37">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q37">
-        <v>59.43576101670956</v>
+        <v>172.318590839968</v>
       </c>
       <c r="R37">
-        <v>534.9218491503859</v>
+        <v>1550.867317559712</v>
       </c>
       <c r="S37">
-        <v>0.008236704064044561</v>
+        <v>0.01387215279786688</v>
       </c>
       <c r="T37">
-        <v>0.008236704064044561</v>
+        <v>0.01387215279786688</v>
       </c>
     </row>
   </sheetData>
